--- a/biology/Botanique/Aphanopetalaceae/Aphanopetalaceae.xlsx
+++ b/biology/Botanique/Aphanopetalaceae/Aphanopetalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Aphanopetalaceae regroupe des plantes dicotylédones ; elle ne comprend que 2 espèces du genre Aphanopetalum (en).
 Ce sont des arbustes du type vigne, à feuilles opposées, originaires d'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Aphanopetalum composé du grec αφανώς / afanos, discret, et πετάλων / petalon, pétale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Aphanopetalum composé du grec αφανώς / afanos, discret, et πετάλων / petalon, pétale.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille n'existe pas en classification classique.
 Cette famille fut placée tour à tour dans les Cunoniaceae puis dans les Oxalidales.
-La classification phylogénétique APG III (2009)[2] situe cette famille dans l'ordre des Saxifragales.
+La classification phylogénétique APG III (2009) situe cette famille dans l'ordre des Saxifragales.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 genre Aphanopetalum (en)
 Aphanopetalum clematideum
 Aphanopetalum resinosum</t>
